--- a/outputs/internshala-analytics-jobs.xlsx
+++ b/outputs/internshala-analytics-jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,42 +508,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Devavi Media</t>
+          <t>8Views</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://instagram.com/devavimeida</t>
+          <t>http://www.8views.com/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Devavi Media is a dynamic advertising agency specializing in social media management, content creation, and performance marketing. As a team that views itself as a true partner to its clients, we focus on collaborating with small, select entrepreneurs, helping them scale their businesses with tailored strategies and creative solutions. Join us in empowering businesses to grow and succeed!</t>
+          <t>8Views is a fast-paced, end-to-end digital marketing company providing solutions across digital platforms. The core focus of the company is to help brands meet their business goals through the rapidly growing online space. Our solutions include search engine optimization, social media marketing, email marketing, ad campaigns, content marketing, analytics, and more.</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hiring since January 2025</t>
+          <t>Hiring since March 2023</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>English Proficiency (Spoken), English Proficiency (Written), Facebook Ads, Google AdWords, Google Analytics, Certificate,  Letter of recommendation,  Job offer</t>
+          <t>Digital Advertising, Digital Marketing, Facebook Ads, Google AdWords, Google Analytics, Instagram Marketing, Search Engine Marketing (SEM), Certificate,  Letter of recommendation,  Informal dress code,  5 days a week,  Free snacks &amp; beverages</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Work from home</t>
+          <t>Secunderabad, Hyderabad, Madhapur, Telangana</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,55 +553,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>₹ 7,500 /month</t>
+          <t>₹ 8,000 - 15,000 /month</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-performance-marketing-internship-at-devavi-media1744000662</t>
+          <t>https://internshala.com/internship/detail/performance-marketing-paid-ads-internship-in-multiple-locations-at-8views1744015239</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Myla Organics</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>http://mylaorganics.com</t>
-        </is>
-      </c>
+          <t>MentorBoxx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Myla Organics is a cutting-edge software development company dedicated to creating innovative solutions that empower businesses and individuals. With a strong focus on organic growth and sustainability, we harness the latest technologies to build custom software products tailored to our clients' unique needs. Our team of experienced developers, designers, and project managers collaborates closely with clients to understand their objectives and deliver high-quality, scalable, and user-friendly software solutions. Whether it's web development, mobile apps, or enterprise software, we leverage our expertise to drive digital transformation and help our clients stay ahead in today's competitive landscape. At Myla Organics, we prioritize sustainability and ethical practices in everything we do.</t>
+          <t>Our sole aim at MentorBoxx is to bridge the gap between universities &amp; industries. We select 30 students every month to regularly interact with the right industry experts, work on live industry projects, and grasp as much industry knowledge as possible.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>1630</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hiring since April 2024</t>
+          <t>Hiring since April 2021</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Data Science, Machine Learning, Certificate,  Letter of recommendation,  Flexible work hours,  5 days a week,  Job offer</t>
+          <t>Creative Writing, Email Marketing, English Proficiency (Spoken), English Proficiency (Written), Facebook Marketing, Google AdWords, Google Analytics, Instagram Marketing, Search Engine Marketing (SEM), Search Engine Optimization (SEO), Certificate,  Flexible work hours</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>208</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Work from home</t>
+          <t>Chennai, Coimbatore, Delhi, Gurgaon, Lucknow, Patna, Pune, Ranchi, Hyderabad, Mumbai, Varanasi, Jaipur, Noida, Bangalore, Andhra Tharhi</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -611,43 +607,47 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>₹ 5,000 - 7,000 /month</t>
+          <t>₹ 10,000 /month</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-data-science-internship-at-myla-organics1743823512</t>
+          <t>https://internshala.com/internship/detail/part-time-digital-marketing-internship-in-multiple-locations-at-mentorboxx1744029239</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Renan Partners</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>Vitals7</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>http://vitals7.com</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Renan is an AI consultancy organization that offers data annotation and LLM fine-tuning services across over 50 languages.</t>
+          <t>Vitals7 is an innovative telehealth and AI-driven self-health monitoring platform. We empower users with cutting-edge technology, predictive analytics, and holistic healthcare solutions. Our platform integrates IoT-based health monitoring, AI-powered analytics, and digital health consultations to make healthcare more accessible and affordable. We are looking for passionate and creative digital marketing interns to join our team and help execute AI-powered marketing campaigns using the latest automation tools.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hiring since August 2024</t>
+          <t>Hiring since March 2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MySQL, Python, Certificate,  Letter of recommendation,  Flexible work hours,  5 days a week,  Job offer</t>
+          <t>Django, Flask, Machine Learning, Python, Certificate,  Letter of recommendation,  Flexible work hours</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Work from home</t>
+          <t>Hyderabad, Bangalore                                                    (Hybrid)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -665,52 +665,51 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>₹ 5,000 /month</t>
+          <t>₹ 10,000 - 40,000 /month</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-data-analyst-internship-at-renan-partners1743678766</t>
+          <t>https://internshala.com/internship/detail/python-development-internship-in-multiple-locations-at-vitals71743684810</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Big Bulls</t>
+          <t>Tex N Co</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>At Big Bulls, our aim is simple: to educate you on profitable money investment. Whether you've considered becoming a trader, what to trade, which trading software to use, or how to understand the market, look no further. Our trading program offers a comprehensive range of financial training courses focused on price action trading. Whether you're interested in trading futures markets, commodities, or day trading currency markets, we can teach you how to trade consistently and profitably.
-At Training Traders, we believe we provide the best training, coaching, and mentorship available anywhere. Your training course marks just the beginning of your journey with us. We prioritize offering robust mentorship and coaching follow-up because the education process never truly ends, regardless of whether you're a novice or an experienced trader. In the ever-changing market landscape, traders learn something new every day.</t>
+          <t>We are an interior design and construction firm handling design and execution for both residential and commercial interior, construction, and renovation projects.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>564</v>
+        <v>9</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hiring since June 2024</t>
+          <t>Hiring since July 2021</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Effective Communication, Certificate,  Letter of recommendation,  5 days a week,  Job offer</t>
+          <t>AutoCAD, Data Analytics, Engineering Drawing, Engineering Surveying, English Proficiency (Written), Google Docs, Google Sheets, Google SketchUp , Certificate,  Letter of recommendation,  Informal dress code,  Free snacks &amp; beverages</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>106</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Work from home</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -720,51 +719,51 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>₹ 8,000 - 30,000 /month</t>
+          <t>₹ 10,000 /month</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-technical-research-internship-at-big-bulls1743587824</t>
+          <t>https://internshala.com/internship/detail/technical-assistant-internship-in-hyderabad-at-tex-n-co1743582036</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DeepThought Edutech Ventures Private Limited</t>
+          <t>J K Arts</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DeepThought (DT), a DeepTech product innovation company, dreams of transforming every school/college into an MIT/Harvard/IISER-style research institution by 2030. Our SD LMS (Socratic dialogue learning management system) is based on DT's thread-building technology. DT (SD LMS) helps product startups in grooming beginners for product-innovation roles. Some of our early clients are Kringle.ai (loyalty programs), Growpital (agri-tech), and IPx (fintech). In the long term, we'd like to serve schools, colleges, corporations, and institutions with a research and innovation culture. DT is funded by 5 school leaders, 3 parents, and 3 technologists including Mr. S.Vishwanathan (former CPO, NIIT Technologies), Mr. Anup Kalbalia (former lead, CodeChef), and Dr. Jyothi Reddy (Director of Education, The Shriram Universal School).</t>
+          <t>We are a startup, mainly focused on sentimental analysis, PR activities, and reputation management.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1755</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hiring since March 2020</t>
+          <t>Hiring since March 2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Data Analysis, Certificate,  Job offer</t>
+          <t>Adobe After Effects, Adobe Illustrator, Adobe Photoshop, Adobe Premiere Pro, Business Development, Client Relationship, Conflict Management, Content Management, Critical thinking, Data Analysis, Data Extraction, Data Manipulation, Final Cut Pro, Influencer Marketing, Problem Solving, Report Generation, Research and Analytics, Resource Management, Video Editing, Videography, Certificate</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Work from home</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -774,55 +773,55 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>₹ 2,000 /month</t>
+          <t>₹ 8,000 - 12,000 /month</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-data-analytics-internship-at-deepthought-edutech-ventures-private-limited1743305368</t>
+          <t>https://internshala.com/internship/detail/associate-consultant-internship-in-hyderabad-at-j-k-arts1743423990</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Knowledge Sourcing Intelligence</t>
+          <t>The Affordable Organic Store</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.knowledge-sourcing.com</t>
+          <t>https://theaffordableorganicstore.com/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Knowledge Sourcing Intelligence is a market research company based in Noida, specializing in syndicated and custom market research reports. We publish research studies spanning over ten industry verticals.</t>
+          <t>We are a bunch of enthusiasts who want to make good food affordable again by cutting out the middlemen. We want to set an example that a sustainable business can also be run without exploiting the consumers with high prices. We will be successful if everyone in the country starts doing what we do. We will change the rules of retail and modern trade. We will bring the power back to the producers from the retailers or middlemen. From our team, we want only the best. We are a tech-driven company with a focus on constant innovation. We need smart people with the best analytical and communication skills and a great heart. If we succeed, we will create a world order where everyone has access to good food and will lead a content life. We promise that we will take care of you at all times.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="E7" t="n">
-        <v>121</v>
+        <v>714</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hiring since January 2016</t>
+          <t>Hiring since May 2020</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Economics, English Proficiency (Spoken), English Proficiency (Written), MS-Excel, MS-Office, MS-PowerPoint, MS-Word, Research and Analytics, Certificate,  5 days a week,  Job offer</t>
+          <t>Data Analytics, Data Science, MS-Excel, MS-Office, Power BI, SQL, Certificate,  Letter of recommendation</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>459</v>
+        <v>226</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Work from home</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -832,55 +831,55 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>₹ 10,000 /month</t>
+          <t>₹ 5,000 /month</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-market-research-internship-at-knowledge-sourcing-intelligence1742900377</t>
+          <t>https://internshala.com/internship/detail/data-analytics-internship-in-hyderabad-at-the-affordable-organic-store1742636460</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rapidalley</t>
+          <t>RIAI</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.rapidalley.com/</t>
+          <t>https://riai.co.in/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rapidalley is a service-oriented company. We provide our clients with technical solutions to upgrade their businesses. We value digital recognition and aesthetic appeal. Our mission is to assist all businesses, from little shops to giant enterprises, in building their online presence and establishing their brand identity. Our expertise includes website development, graphic design and branding, products and packaging, social media, and ad campaigns.</t>
+          <t>At RIAI, we are not just developing AI; we are redefining how AI interacts with users and businesses through continuous research and development.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hiring since July 2020</t>
+          <t>Hiring since March 2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Business Research, Design Thinking, Effective Communication, English Proficiency (Spoken), English Proficiency (Written), MS-Excel, MS-Office, Research and Analytics, Certificate,  Letter of recommendation,  Flexible work hours,  5 days a week,  Job offer</t>
+          <t>Email Marketing, Facebook Ads, Google AdWords, Google Analytics, Search Engine Optimization (SEO), WordPress, Certificate,  Letter of recommendation</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>582</v>
+        <v>65</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Work from home</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -890,51 +889,51 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>₹ 3,000-7,500 /month</t>
+          <t>₹ 18,000 /month</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-market-research-internship-at-rapidalley1742548980</t>
+          <t>https://internshala.com/internship/detail/psychology-behavioral-marketing-strategic-communications-internship-in-hyderabad-at-riai1742462010</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Emoolar Technology Private Limited</t>
+          <t>Grow Easy Hair Care Solutions Private Limited</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>At Emoolar, we are a leading provider of comprehensive IT services tailored to meet the evolving needs of businesses in the digital age. With a commitment to excellence and innovation, we deliver cutting-edge solutions that empower organizations to thrive in today's dynamic and competitive landscape.</t>
+          <t>We are a startup in the hair care industry working to overcome problems of traditional hair care methods and provide chemical-free products to customers.</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hiring since August 2021</t>
+          <t>Hiring since March 2021</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Data Analytics, Certificate,  Letter of recommendation,  Flexible work hours,  5 days a week,  Job offer</t>
+          <t>Data Analytics, Research and Analytics, Certificate,  Letter of recommendation,  Informal dress code,  Free snacks &amp; beverages,  Job offer</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>86</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Work from home</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -944,55 +943,55 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>₹ 5,000 /month</t>
+          <t>₹ 2,000 /month</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-part-time-data-analytics-internship-at-emoolar-technology-private-limited1742470264</t>
+          <t>https://internshala.com/internship/detail/business-analytics-internship-in-hyderabad-at-grow-easy-hair-care-solutions-private-limited1742447585</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MyFitFuel (Inventiva Labs Private Limited)</t>
+          <t>APTAGRIM CONSULTING PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.myfitfuel.in</t>
+          <t>https://aptagrim.com/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MyFitFuel is a sports &amp; fitness nutrition startup with a long-term vision of solving some of the very important problems in the sports &amp; fitness nutrition industry in India. We have a growing number of happy customers who love our products and always look towards our brand with trust which brings better quality nutrition &amp; knowledge for their fitness goals. With the help of a hard-working and smart working team, we aim to bring wonderful experiences to our customers. We are based in South Delhi.</t>
+          <t>APTAGRIM CONSULTING PRIVATE LIMITED is a DeepTech AI company that offers a range of AI services to businesses across different industries. With expertise in deep learning, CNN, computer vision, NLP, and chatbot development, Aptagrim provides AI-powered solutions that automate business processes, analyze data, and enhance customer engagement. The company also offers data engineering and business intelligence services that turn data into actionable insights. Aptagrim is equipped to handle product engineering services, incubate ideas, and develop MVPs for startups and entrepreneurs.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hiring since October 2016</t>
+          <t>Hiring since March 2023</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Digital Marketing, Email Marketing, English Proficiency (Written), MS-Excel, Certificate,  Letter of recommendation,  Flexible work hours,  Job offer</t>
+          <t>Computer Vision, Deep Learning, Natural Language Processing (NLP), Certificate,  Letter of recommendation,  5 days a week,  Free snacks &amp; beverages</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>91</v>
+        <v>674</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Work from home</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1002,13 +1001,287 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>₹ 6,000-7,000 /month</t>
+          <t>₹ 15,000 /month</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/work-from-home-digital-marketing-internship-at-myfitfuel-inventiva-labs-private-limited1741679541</t>
+          <t>https://internshala.com/internship/detail/ai-engineer-internship-in-hyderabad-at-aptagrim-consulting-private-limited1742035373</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Denary Media Private Limited</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>We are a relatively new company based out of Secunderabad. Our founders have been in the digital space for over 6 years and are quite adept at delivering data-driven results. We are currently working with two large hospital chains and a few other large brands in Hyderabad.</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hiring since October 2019</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Digital Marketing, English Proficiency (Written), Google Analytics, Search Engine Optimization (SEO), Certificate</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>₹ 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/search-engine-optimization-seo-internship-in-hyderabad-at-denary-media-private-limited1741765638</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Megaminds IT Services</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>We provide application solutions and development needs to clients. We offer business solutions for computing and creative excellence and deliver innovative and cost-effective solutions with ethics. Our experienced and committed team, with its strong focus on technology, is the backbone of our company in delivering the synergy of creative solutions. We design, develop, and deliver cost-effective and high-quality software applications. We provide e-commerce, retail, manufacturing, and many other services. We work on political campaigning with transparency. Megaminds IT Services (now Megaminds IT &amp; Job Consultancy Services) has started job consultancy services too.</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>81</v>
+      </c>
+      <c r="E12" t="n">
+        <v>304</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hiring since March 2019</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Algorithms, Business Analysis, Computer Vision, Data Analysis, Data Analytics, Data Science, English Proficiency (Spoken), English Proficiency (Written), LaTeX, Machine Learning, MS-PowerPoint, MS-Word, Power BI, Research and Analytics, Certificate,  Letter of recommendation</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>178</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>₹ 6,000-8,000 /month</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/content-writer-internship-in-hyderabad-at-megaminds-it-services1741669406</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LYWO Recruitment Consulting LLP</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>LYWO is an early-stage start-up with the objective to identify or develop an AI-assisted behavioral model that is simple enough to be used by an organization of any size.</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Adobe After Effects, Adobe Creative Suite, Adobe Illustrator, Adobe InDesign, Adobe Photoshop, Adobe Photoshop Lightroom CC, Adobe Premiere Pro, Computer Vision, Visual Basic (VB), Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>134</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>₹ 15,000 /month</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/graphic-design-internship-in-hyderabad-at-lywo-recruitment-consulting-llp1741585446</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The Short Media</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://theshortmedia.com/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The Short Media is a marketing agency specializing in short-form video and social commerce. Founded by former TikTok leaders who shaped the platform's advertising landscape, we bring a unique blend of innovation and expertise to our clients. Our team has a proven track record of driving exceptional results, having managed substantial ad budgets and developed groundbreaking strategies. We empower brands to connect with their audiences on TikTok, Meta, Snap, and social e-commerce, ensuring they stay ahead in the ever-evolving digital marketplace.</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Data Analytics, Digital Marketing, Facebook Ads, Marketing, Job offer</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>339</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>₹ 30,000 /month</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/performance-marketing-specialist-internship-in-hyderabad-at-the-short-media1741255003</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Medstown Private Limited</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>At Medstown our mission is to provide each customer with seamless and fast medicine delivery services, while not only saving their money and time but also uplifting and supporting our local pharmacies. We at Medstown aim to be the one stop shop and go to solution for patients in need of medicines, while ensuring our local pharmacies grow too. This way we aim to create a win-win situation for both customer and supplier.</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Hiring since September 2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Data Analysis, Effective Communication, Negotiation, Problem Solving, Time Management, Job offer</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>177</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>₹ 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/customer-success-internship-in-hyderabad-at-medstown-private-limited1741005176</t>
         </is>
       </c>
     </row>

--- a/outputs/internshala-analytics-jobs.xlsx
+++ b/outputs/internshala-analytics-jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,34 +508,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8Views</t>
+          <t>Alchemy Medicine Private Limited</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.8views.com/</t>
+          <t>http://www.alcmed.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8Views is a fast-paced, end-to-end digital marketing company providing solutions across digital platforms. The core focus of the company is to help brands meet their business goals through the rapidly growing online space. Our solutions include search engine optimization, social media marketing, email marketing, ad campaigns, content marketing, analytics, and more.</t>
+          <t>Alchemy Medicine manufactures quality generics pharmaceutical products competitively by continuously improving its products process and adding new products in all segments, there by carving out a niche for itself, in the Global Pharma field.</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hiring since March 2023</t>
+          <t>Hiring since July 2023</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Digital Advertising, Digital Marketing, Facebook Ads, Google AdWords, Google Analytics, Instagram Marketing, Search Engine Marketing (SEM), Certificate,  Letter of recommendation,  Informal dress code,  5 days a week,  Free snacks &amp; beverages</t>
+          <t>Adobe Illustrator, Adobe InDesign, Canva, Content Writing, Copywriting, Creative Writing, Display Ads, English Proficiency (Spoken), English Proficiency (Written), Facebook Marketing, Social Media Marketing, Certificate,  Letter of recommendation,  Job offer</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -543,7 +543,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Secunderabad, Hyderabad, Madhapur, Telangana</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -553,51 +553,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>₹ 8,000 - 15,000 /month</t>
+          <t>₹ 8,000 - 10,000 /month</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/performance-marketing-paid-ads-internship-in-multiple-locations-at-8views1744015239</t>
+          <t>https://internshala.com/internship/detail/market-research-internship-in-hyderabad-at-alchemy-medicine-private-limited1744358276</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MentorBoxx</t>
+          <t>AroundMe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Our sole aim at MentorBoxx is to bridge the gap between universities &amp; industries. We select 30 students every month to regularly interact with the right industry experts, work on live industry projects, and grasp as much industry knowledge as possible.</t>
+          <t>AroundMe is a social app that helps users instantly connect with nearby people for spontaneous hangouts, meaningful discussions, or simply help. Please watch this video to learn about the product.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1630</v>
+        <v>3</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hiring since April 2021</t>
+          <t>Hiring since February 2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Creative Writing, Email Marketing, English Proficiency (Spoken), English Proficiency (Written), Facebook Marketing, Google AdWords, Google Analytics, Instagram Marketing, Search Engine Marketing (SEM), Search Engine Optimization (SEO), Certificate,  Flexible work hours</t>
+          <t>FastAPI, LangChain, LLMOps, Prompt Engineering, Python, REST API, Certificate,  Letter of recommendation,  Informal dress code,  Job offer</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Chennai, Coimbatore, Delhi, Gurgaon, Lucknow, Patna, Pune, Ranchi, Hyderabad, Mumbai, Varanasi, Jaipur, Noida, Bangalore, Andhra Tharhi</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -607,55 +607,51 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>₹ 10,000 /month</t>
+          <t>₹ 10,000 - 20,000 /month</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/part-time-digital-marketing-internship-in-multiple-locations-at-mentorboxx1744029239</t>
+          <t>https://internshala.com/internship/detail/artificial-intelligence-ai-internship-in-hyderabad-at-aroundme1744286304</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vitals7</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>http://vitals7.com</t>
-        </is>
-      </c>
+          <t>Grow Easy Hair Care Solutions Private Limited</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vitals7 is an innovative telehealth and AI-driven self-health monitoring platform. We empower users with cutting-edge technology, predictive analytics, and holistic healthcare solutions. Our platform integrates IoT-based health monitoring, AI-powered analytics, and digital health consultations to make healthcare more accessible and affordable. We are looking for passionate and creative digital marketing interns to join our team and help execute AI-powered marketing campaigns using the latest automation tools.</t>
+          <t>We are a startup in the hair care industry working to overcome problems of traditional hair care methods and provide chemical-free products to customers.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hiring since March 2025</t>
+          <t>Hiring since March 2021</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Django, Flask, Machine Learning, Python, Certificate,  Letter of recommendation,  Flexible work hours</t>
+          <t>Data Analytics, Research and Analytics, Certificate,  Letter of recommendation,  Informal dress code,  Free snacks &amp; beverages,  Job offer</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>97</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Hyderabad, Bangalore                                                    (Hybrid)</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -665,47 +661,51 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>₹ 10,000 - 40,000 /month</t>
+          <t>₹ 2,000 /month</t>
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/python-development-internship-in-multiple-locations-at-vitals71743684810</t>
+          <t>https://internshala.com/internship/detail/business-analytics-internship-in-hyderabad-at-grow-easy-hair-care-solutions-private-limited1742447585</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tex N Co</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>The Short Media</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://theshortmedia.com/</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>We are an interior design and construction firm handling design and execution for both residential and commercial interior, construction, and renovation projects.</t>
+          <t>The Short Media is a marketing agency specializing in short-form video and social commerce. Founded by former TikTok leaders who shaped the platform's advertising landscape, we bring a unique blend of innovation and expertise to our clients. Our team has a proven track record of driving exceptional results, having managed substantial ad budgets and developed groundbreaking strategies. We empower brands to connect with their audiences on TikTok, Meta, Snap, and social e-commerce, ensuring they stay ahead in the ever-evolving digital marketplace.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hiring since July 2021</t>
+          <t>Hiring since March 2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AutoCAD, Data Analytics, Engineering Drawing, Engineering Surveying, English Proficiency (Written), Google Docs, Google Sheets, Google SketchUp , Certificate,  Letter of recommendation,  Informal dress code,  Free snacks &amp; beverages</t>
+          <t>Data Analytics, Digital Marketing, Facebook Ads, Marketing, Job offer</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>106</v>
+        <v>366</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -719,47 +719,47 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>₹ 10,000 /month</t>
+          <t>₹ 30,000 /month</t>
         </is>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/technical-assistant-internship-in-hyderabad-at-tex-n-co1743582036</t>
+          <t>https://internshala.com/internship/detail/performance-marketing-specialist-internship-in-hyderabad-at-the-short-media1741255003</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J K Arts</t>
+          <t>Medstown Private Limited</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>We are a startup, mainly focused on sentimental analysis, PR activities, and reputation management.</t>
+          <t>At Medstown our mission is to provide each customer with seamless and fast medicine delivery services, while not only saving their money and time but also uplifting and supporting our local pharmacies. We at Medstown aim to be the one stop shop and go to solution for patients in need of medicines, while ensuring our local pharmacies grow too. This way we aim to create a win-win situation for both customer and supplier.</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hiring since March 2025</t>
+          <t>Hiring since September 2023</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Adobe After Effects, Adobe Illustrator, Adobe Photoshop, Adobe Premiere Pro, Business Development, Client Relationship, Conflict Management, Content Management, Critical thinking, Data Analysis, Data Extraction, Data Manipulation, Final Cut Pro, Influencer Marketing, Problem Solving, Report Generation, Research and Analytics, Resource Management, Video Editing, Videography, Certificate</t>
+          <t>Business Analysis, Market research, Project Management, Job offer</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -773,55 +773,55 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>₹ 8,000 - 12,000 /month</t>
+          <t>₹ 10,000 /month</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/associate-consultant-internship-in-hyderabad-at-j-k-arts1743423990</t>
+          <t>https://internshala.com/internship/detail/brand-management-internship-in-hyderabad-at-medstown-private-limited1741000182</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Affordable Organic Store</t>
+          <t>Clink</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://theaffordableorganicstore.com/</t>
+          <t>http://clinkrewards.com</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>We are a bunch of enthusiasts who want to make good food affordable again by cutting out the middlemen. We want to set an example that a sustainable business can also be run without exploiting the consumers with high prices. We will be successful if everyone in the country starts doing what we do. We will change the rules of retail and modern trade. We will bring the power back to the producers from the retailers or middlemen. From our team, we want only the best. We are a tech-driven company with a focus on constant innovation. We need smart people with the best analytical and communication skills and a great heart. If we succeed, we will create a world order where everyone has access to good food and will lead a content life. We promise that we will take care of you at all times.</t>
+          <t>Clink is a cutting-edge platform helping small and medium-sized restaurants grow by simplifying customer engagement and loyalty programs. Our unique features, like Instagram Rewards, allow restaurants to reward customers for engaging with their brand on social media   boosting visibility and repeat visits effortlessly. We help restaurants increase social media engagement, capture customer data, and drive growth through an easy-to-use rewards system.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>714</v>
+        <v>6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hiring since May 2020</t>
+          <t>Hiring since October 2024</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Data Analytics, Data Science, MS-Excel, MS-Office, Power BI, SQL, Certificate,  Letter of recommendation</t>
+          <t>Email Marketing, English Proficiency (Spoken), Sales, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  5 days a week,  Job offer</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Secunderabad, Hyderabad, Ameerpet, Madhapur, Manikonda Jagir</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -831,51 +831,47 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>₹ 5,000 /month</t>
+          <t>₹ 15,000 /month</t>
         </is>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/data-analytics-internship-in-hyderabad-at-the-affordable-organic-store1742636460</t>
+          <t>https://internshala.com/internship/detail/field-sales-internship-in-multiple-locations-at-clink1741863137</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RIAI</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://riai.co.in/</t>
-        </is>
-      </c>
+          <t>Hungry Picnic</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>At RIAI, we are not just developing AI; we are redefining how AI interacts with users and businesses through continuous research and development.</t>
+          <t>At Hungry Picnic, we're in the business of ensuring our guests get just what they want, just when they need it. We provide smart vending solutions in offices, manufacturing plants, airports, hospitals, university settings, and anywhere in between. It's more than snacks, drinks, and fresh food. We provide the fuel that keeps people going when they've had a long day and helps people connect. We know community matters and if you've got a passion for service and innovation, the Hungry Picnic community may be just the right fit. We'd love to have you.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hiring since March 2025</t>
+          <t>Hiring since January 2023</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Email Marketing, Facebook Ads, Google AdWords, Google Analytics, Search Engine Optimization (SEO), WordPress, Certificate,  Letter of recommendation</t>
+          <t>Operations, Letter of recommendation,  Job offer</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -889,33 +885,33 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>₹ 18,000 /month</t>
+          <t>₹ 6,000 /month</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/psychology-behavioral-marketing-strategic-communications-internship-in-hyderabad-at-riai1742462010</t>
+          <t>https://internshala.com/internship/detail/part-time-vending-machine-refiller-internship-in-hyderabad-at-hungry-picnic1744007695</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Grow Easy Hair Care Solutions Private Limited</t>
+          <t>Techdome Solutions Private Limited</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>We are a startup in the hair care industry working to overcome problems of traditional hair care methods and provide chemical-free products to customers.</t>
+          <t>We are a technology-driven company that develops innovative solutions for our clients' problems, so they can stand out in the world and succeed. After working in the industry for over 10 years, our ambition has become to enable technological improvements in each and every sector. We work by the principle, 'Let us focus on technology pieces and you can work on your business'. Together, we can change the world.</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
-        <v>110</v>
+        <v>349</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -925,11 +921,11 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Data Analytics, Research and Analytics, Certificate,  Letter of recommendation,  Informal dress code,  Free snacks &amp; beverages,  Job offer</t>
+          <t>Client Relationship, Effective Communication, MS-Excel, Scheduling, Team Management, Certificate,  Flexible work hours,  Informal dress code,  5 days a week,  Job offer</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -943,51 +939,51 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>₹ 2,000 /month</t>
+          <t>₹ 5,000 - 15,000 /month</t>
         </is>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/business-analytics-internship-in-hyderabad-at-grow-easy-hair-care-solutions-private-limited1742447585</t>
+          <t>https://internshala.com/internship/detail/management-associate-internship-in-hyderabad-at-techdome-solutions-private-limited1743740755</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APTAGRIM CONSULTING PRIVATE LIMITED</t>
+          <t>Ziegler Aerospace</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://aptagrim.com/</t>
+          <t>http://ziegler-aerospace.co.uk</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>APTAGRIM CONSULTING PRIVATE LIMITED is a DeepTech AI company that offers a range of AI services to businesses across different industries. With expertise in deep learning, CNN, computer vision, NLP, and chatbot development, Aptagrim provides AI-powered solutions that automate business processes, analyze data, and enhance customer engagement. The company also offers data engineering and business intelligence services that turn data into actionable insights. Aptagrim is equipped to handle product engineering services, incubate ideas, and develop MVPs for startups and entrepreneurs.</t>
+          <t>Ziegler Aerospace is a premier provider of engineering and component solutions, with a global presence in the UK, US, France, and India. We specialize in delivering innovative services to meet the evolving needs of the aerospace industry. Our capabilities span research, design &amp; engineering, software development, and supply chain allowing us to offer end-to-end solutions. We proudly serve a diverse range of clients, including airlines, MROs &amp; regulatory organizations EASA, and FAA. From aircraft modifications to maintenance, repair, and certification, we provide comprehensive services tailored to industry needs. At ZA, our success is driven by a dedicated team of professionals who are committed to excellence. We foster a culture of hard work, collaboration, and continuous improvement, with a strong focus on safety, compliance, and innovation. This commitment ensures that we consistently deliver high-quality solutions while maintaining the highest industry standards.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hiring since March 2023</t>
+          <t>Hiring since February 2025</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Computer Vision, Deep Learning, Natural Language Processing (NLP), Certificate,  Letter of recommendation,  5 days a week,  Free snacks &amp; beverages</t>
+          <t>English Proficiency (Spoken), JavaScript, Manual Testing, MERN, MongoDB, Node.js, React, Selenium, Certificate,  Letter of recommendation,  Flexible work hours,  5 days a week,  Free snacks &amp; beverages,  Job offer</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>674</v>
+        <v>150</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1001,43 +997,47 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>₹ 15,000 /month</t>
+          <t>₹ 5,000 /month</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/ai-engineer-internship-in-hyderabad-at-aptagrim-consulting-private-limited1742035373</t>
+          <t>https://internshala.com/internship/detail/mern-developer-internship-in-hyderabad-at-ziegler-aerospace1744175646</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Denary Media Private Limited</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>CIPHER Oncology Private Limited</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>http://cancerclinics.in</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>We are a relatively new company based out of Secunderabad. Our founders have been in the digital space for over 6 years and are quite adept at delivering data-driven results. We are currently working with two large hospital chains and a few other large brands in Hyderabad.</t>
+          <t>CION Cancer Clinics is a network of oncology treatment centers operating across Andhra Pradesh and Telangana, India. Established in 2019 and headquartered in Hyderabad, the organization focuses on providing comprehensive cancer care through a team of experienced oncologists and specialists. Their services encompass medical oncology, surgical oncology, radiation therapy, and integrative care, aiming to deliver personalized treatment plans for patients. CION Cancer Clinics has expanded to over 20 locations, including multiple centers in Hyderabad, such as Ameerpet, Kompally, Tolichowki, Kukatpally, and Masab Tank. The clinics offer additional support services like nutrition counseling and psychological support to assist patients throughout their treatment journey.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hiring since October 2019</t>
+          <t>Hiring since April 2025</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Digital Marketing, English Proficiency (Written), Google Analytics, Search Engine Optimization (SEO), Certificate</t>
+          <t>English Proficiency (Spoken), Telugu Proficiency (Spoken), Job offer</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1055,47 +1055,53 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>₹ 10,000 /month</t>
+          <t>₹ 15,000 - 20,000 /month</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/search-engine-optimization-seo-internship-in-hyderabad-at-denary-media-private-limited1741765638</t>
+          <t>https://internshala.com/internship/detail/marketing-internship-in-hyderabad-at-cipher-oncology-pvt-ltd1744286541</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Megaminds IT Services</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>Prosapiens</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>http://prosapiens.in</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>We provide application solutions and development needs to clients. We offer business solutions for computing and creative excellence and deliver innovative and cost-effective solutions with ethics. Our experienced and committed team, with its strong focus on technology, is the backbone of our company in delivering the synergy of creative solutions. We design, develop, and deliver cost-effective and high-quality software applications. We provide e-commerce, retail, manufacturing, and many other services. We work on political campaigning with transparency. Megaminds IT Services (now Megaminds IT &amp; Job Consultancy Services) has started job consultancy services too.</t>
+          <t>ProSapiens is a skilled team of industry professionals with a great passion for making a difference in Human Resources Management.
+We cater to each client in a manner that they successfully build and keep great teams that build great businesses. Our client's success is our passion. Our team has extensive professional work experience and specializes in different domains across industries in both pan-India and International arenas. We service clients spread across various industries including IT, ITES, KPO, telecom, banking and financial services, healthcare, logistics, manufacturing, engineering, and consulting Services.
+The greatest asset of Pro Sapiens is the workforce. Led by experienced and well-qualified consultants, our team is a perfect blend of fresh ideas and experience.</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>304</v>
+        <v>3</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hiring since March 2019</t>
+          <t>Hiring since June 2024</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Algorithms, Business Analysis, Computer Vision, Data Analysis, Data Analytics, Data Science, English Proficiency (Spoken), English Proficiency (Written), LaTeX, Machine Learning, MS-PowerPoint, MS-Word, Power BI, Research and Analytics, Certificate,  Letter of recommendation</t>
+          <t>Digital Marketing, Effective Communication, Email Marketing, English Proficiency (Spoken), Social Media Marketing, Time Management, Job offer</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1109,47 +1115,47 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>₹ 6,000-8,000 /month</t>
+          <t>₹ 15,000 - 25,000 /month</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/content-writer-internship-in-hyderabad-at-megaminds-it-services1741669406</t>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-prosapiens1744273550</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LYWO Recruitment Consulting LLP</t>
+          <t>VisionTech Academy PVT LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LYWO is an early-stage start-up with the objective to identify or develop an AI-assisted behavioral model that is simple enough to be used by an organization of any size.</t>
+          <t>At VisionTech, we revolutionize education for the modern world. We aim to make quality learning accessible to all, regardless of background or location. Using advanced technology and expert content, we help individuals build skills and confidence for success in life and work.</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hiring since March 2025</t>
+          <t>Hiring since April 2025</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Adobe After Effects, Adobe Creative Suite, Adobe Illustrator, Adobe InDesign, Adobe Photoshop, Adobe Photoshop Lightroom CC, Adobe Premiere Pro, Computer Vision, Visual Basic (VB), Certificate,  Letter of recommendation,  Job offer</t>
+          <t>Effective Communication, Interpersonal skills, Certificate,  Job offer</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1163,30 +1169,30 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>₹ 15,000 /month</t>
+          <t>₹ 12,000 - 22,000 /month</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/graphic-design-internship-in-hyderabad-at-lywo-recruitment-consulting-llp1741585446</t>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-visiontech-academy-pvt-ltd1744275707</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The Short Media</t>
+          <t>Vivimed Labs Limited</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://theshortmedia.com/</t>
+          <t>https://www.vivimedlabs.com</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The Short Media is a marketing agency specializing in short-form video and social commerce. Founded by former TikTok leaders who shaped the platform's advertising landscape, we bring a unique blend of innovation and expertise to our clients. Our team has a proven track record of driving exceptional results, having managed substantial ad budgets and developed groundbreaking strategies. We empower brands to connect with their audiences on TikTok, Meta, Snap, and social e-commerce, ensuring they stay ahead in the ever-evolving digital marketplace.</t>
+          <t>Vivimed Labs Limited has had its presence in the field of pharma formulations, API, and specialty chemicals for over 20 years and has established state-of-the-art facilities. Founded in 1991 in Hyderabad, India, Vivimed Labs has grown from a small family business into a global supplier of niche molecules and formulations across healthcare, pharmaceuticals, and specialty chemicals in nearly 50 countries. With a strong focus on chemistry-driven innovation, the company delivers high-quality products, including finished dosage formulations (FDF) and retail-branded formulations.</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1197,17 +1203,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hiring since March 2025</t>
+          <t>Hiring since April 2025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Data Analytics, Digital Marketing, Facebook Ads, Marketing, Job offer</t>
+          <t>Effective Communication, English Proficiency (Spoken), English Proficiency (Written), Interpersonal skills, Leadership, MS-Excel, MS-PowerPoint, Quality Assurance/Quality Control (QA/QC), Team Management, Certificate,  Job offer</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1221,47 +1227,52 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>₹ 30,000 /month</t>
+          <t>₹ 10,000 /month</t>
         </is>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/performance-marketing-specialist-internship-in-hyderabad-at-the-short-media1741255003</t>
+          <t>https://internshala.com/internship/detail/pharmaceutical-factory-all-departments-internship-in-hyderabad-at-vivimed-labs-limited1744200578</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Medstown Private Limited</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>PeopleLink Unified Communication Private Limited</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.peoplelinkvc.com/</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>At Medstown our mission is to provide each customer with seamless and fast medicine delivery services, while not only saving their money and time but also uplifting and supporting our local pharmacies. We at Medstown aim to be the one stop shop and go to solution for patients in need of medicines, while ensuring our local pharmacies grow too. This way we aim to create a win-win situation for both customer and supplier.</t>
+          <t>Founded in 2007, PeopleLink is the world's leading video conferencing company. A significant player with global coverage in implementing next-generation Video technology, SaaS-based video collaboration, and audio-video peripherals across a wide range of focused industry verticals. We are passionate about innovation, making a mark, and having fun doing it. We aim at delivering tomorrow's experiences today and believe that the 'Future is Now'. As an organization, we are growing rapidly, and so we are looking forward to having ambitious, like-minded people on our team who have the hunger to outdo themselves every day. 
+Our fast-paced flexible culture signifies diversity and equality. Join us as we pursue our passion &amp; disruptive vision to bring professional AV meeting technology and services to everyone, and be a part of our exciting success story.</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hiring since September 2023</t>
+          <t>Hiring since June 2022</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Data Analysis, Effective Communication, Negotiation, Problem Solving, Time Management, Job offer</t>
+          <t>English Proficiency (Spoken), English Proficiency (Written), Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  5 days a week,  Job offer</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1275,13 +1286,3055 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>₹ 10,000 /month</t>
+          <t>₹ 5,000 - 8,000 /month</t>
         </is>
       </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>https://internshala.com/internship/detail/customer-success-internship-in-hyderabad-at-medstown-private-limited1741005176</t>
+          <t>https://internshala.com/internship/detail/talent-acquisition-internship-in-hyderabad-at-peoplelink-unified-communication-private-limited1744170816</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Array Ventures Private Limited</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>http://qompass.in</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>We're building something disruptive in the education space, but we're in stealth mode for now. What we can say? It's a B2C product designed for the age group 15 to 30.</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Hiring since April 2025</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Client Relationship, Effective Communication, Marketing, MS-Excel, Negotiation, Problem Solving, Sales, Certificate,  Letter of recommendation,  Flexible work hours,  5 days a week,  Job offer</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>119</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Chandigarh, Chennai, Delhi, Kolkata, Lucknow, Patna, Pune, Rohtak, Hyderabad, Bhopal, Jaipur, Raipur, Nagpur, Bangalore, Prayagraj Sub-District</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>₹ 7,000 - 12,000 /month</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/market-research-internship-in-multiple-locations-at-array-ventures-private-limited1744174582</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Vedhas Technology Solutions Private Limited</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>http://techvedhas.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Vedhas Technology Solutions Private Limited is a professional web design company that crafts pleasing and appealing websites and offers a result-driven solution, which revolves around user experience and usability. With our certified and experienced designers and developers, we create exceptional websites that help you to stay ahead of your competitors. We understand that every business has its own individual sale point and that's why we don't believe in the concept of one-size-fits-all. By blending their years of experience and expertise in this industry, our professional web designers will create a bespoke website that will not only help you to enhance your business presence in a highly significant way but also help you to spread the message of your brand in an exclusive manner.</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hiring since February 2021</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Digital Marketing, Email Marketing, Facebook Marketing, Search Engine Marketing (SEM), Search Engine Optimization (SEO), Social Media Marketing, Certificate,  5 days a week,  Job offer</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>₹ 3,000 - 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/digital-marketing-internship-in-hyderabad-at-vedhas-technology-solutions-private-limited1744105102</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>XOST</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>http://xost.in</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>XOST is a dynamic and innovative technology and consulting firm committed to delivering cutting-edge solutions that drive business success. With a strong presence across India, we specialize in end-to-end technology services, strategic consulting, and talent acquisition solutions designed to meet the evolving needs of organizations across diverse industries. Our recruitment and talent acquisition division focuses on bridging the gap between top-tier companies and skilled professionals. Our key services include technology and IT solutions such as software development, digital transformation, cloud computing, and cybersecurity; business consulting covering strategic advisory, process optimization, and digital strategy implementation; talent acquisition and recruitment offering end-to-end hiring, staffing, and placement services; and campus placements and career services aimed at partnering with colleges to enhance student employability and career growth.</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Business Development, Effective Communication, English Proficiency (Spoken), English Proficiency (Written), Interpersonal skills, Networking, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>127</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Hyderabad                                                    (Hybrid)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>₹ 28,000 /month</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-xost1744107223</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Skygoal</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/31080384/admin/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Skygoal is a technology innovation organization focused on the design and development of ed-tech solutions. At Skygoal, we recognize the rush to reach education concepts and all our efforts are focused on enabling that future, in the fastest and most effective way possible. The Skygoal team of engineers, with vast expertise in application development, web apps, and back-end development, is dedicated to the development of best-in-class applications and a smooth user experience that stretches from the pocket (electronic devices) to the desktop (PC).</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>48</v>
+      </c>
+      <c r="E19" t="n">
+        <v>86</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Hiring since March 2021</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Client Relationship, Product Lifecycle Management(PLM), Product Management, Project Management, Time Management, Certificate,  Letter of recommendation,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>43</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>₹ 6,000 - 8,000 /month</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/project-management-internship-in-hyderabad-at-skygoal1744097924</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Quick Digital Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>http://raaho.in</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Quick Digital Technologies Pvt Ltd. (Raaho) is India's fastest-growing intercity trucking marketplace, revolutionizing logistics through technology. Headquartered in Gurgaon, Raaho has a strong presence in Bengaluru, Chennai, Mumbai, Pune, Ahmedabad, Kolkata, and several other cities. Founded in 2015 by Imthiaz (CEO) along with Murali (Tech), Fahad (Operations), and Joshua (HR &amp; Customer Experience), the team spent a year driving trucks to gain firsthand insights into industry challenges. Backed by Roots Ventures, Inflection Point Ventures, and prominent angels like Vijay Shekhar Sharma (Paytm) and Kunal Shah (Cred), Raaho is transforming logistics with efficient freight matching, verified vehicles, credible shippers, real-time tracking, and seamless digital payments through its Shipper, Trucker, and Driver apps. With a team of 120 employees, Raaho continues to simplify and optimize the logistics ecosystem across India.</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hiring since September 2019</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Client Interaction, Client Relationship, Coordination, Customer Acquisition, Customer Support, Field Sales, Field Work, MIS, MS-Office, Operations, Sales, Salesforce, Sales Support, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>287</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Chennai, Coimbatore, Delhi, Kolkata, Pune, Hyderabad, Thane, Mumbai, Nagpur, Bangalore</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>₹ 13,000 - 18,000 /month</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/operations-internship-in-multiple-locations-at-quick-digital-technologies-private-limited1744093640</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Katalisia</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>http://www.katalisia.com/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Katalisia revolutionizes content monetization by offering advanced analytics and in-content ad placements for creators, advertisers, and digital agencies. Creators get personalized recommendations to boost engagement, while advertisers benefit from seamless ad integration. Agencies access detailed analytics for optimized campaigns, bridging content creation and monetization.</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hiring since July 2024</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Creative Writing, Digital Marketing, Email Marketing, English Proficiency (Spoken), English Proficiency (Written), Facebook Marketing, Instagram Marketing, Search Engine Marketing (SEM), Search Engine Optimization (SEO), Social Media Marketing, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  5 days a week,  Job offer</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Secunderabad, Hyderabad                                                    (Hybrid)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>₹ 15,000 - 30,000 /month</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/social-media-marketing-internship-in-multiple-locations-at-katalisia1744040970</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Siddharthsai Events &amp; Management Services Private Limited</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>We've organized over 600 designer and lifestyle exhibitions in the last 14 years in different cities in South India under the brand "Trendz by Santhi Kathiravan", "Trendz Vivah" , "Melodrama" and "Once Upon A Time Flea".</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hiring since January 2025</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Client Relationship Management (CRM), Effective Communication, English Proficiency (Spoken), Hindi Proficiency (Spoken), Interpersonal skills, MS-Excel, Certificate,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>₹ 11,000 - 14,000 /month</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/client-relationship-executive-internship-in-hyderabad-at-siddharthsai-events-management-services-private-limited1744036725</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MentorBoxx</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Our sole aim at MentorBoxx is to bridge the gap between universities &amp; industries. We select 30 students every month to regularly interact with the right industry experts, work on live industry projects, and grasp as much industry knowledge as possible.</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>13</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1630</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hiring since April 2021</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>American English, English Proficiency (Spoken), English Proficiency (Written), Tally, Certificate,  Letter of recommendation,  Flexible work hours,  Job offer</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Chennai, Delhi, Pune, Hyderabad, Mumbai, Bangalore</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>₹ 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-human-resources-hr-internship-in-multiple-locations-at-mentorboxx1744029055</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Satyajan Energy Solutions Private Limited</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Satyajan Energy Solutions carries on the business of generating, accumulating, transmitting, distributing, purchasing, selling, and supplying energy &amp; electricity by setting up conventional power plants or through renewable energy sources like wind, solar, or biomass and to deal in energy-saving devices, solar energy products, gadgets and components and to provide consultation and training services.</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>29</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hiring since May 2021</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>English Proficiency (Spoken), MS-Excel, MS-PowerPoint, Research and Analytics, Certificate,  Letter of recommendation,  Flexible work hours,  5 days a week,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>198</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>₹ 20,000 - 30,000 /month</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-strategy-internship-in-hyderabad-at-satyajan-energy-solutions-private-limited1743049718</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Gummalla Technologies</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://gummallatechnologies.com</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Gummalla Technologies Pvt. Ltd. started its operations to make the world grow digitally with the help of its digital solutions. We encourage and empower businesses and individuals to grow digitally with our digital services and keep them secure with their transactions, which is a challenge for MSMEs to grow digitally. We also help our customers to get awareness in the digital world and help them figure out the type of services they need in their business.</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hiring since February 2024</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Adobe After Effects, Adobe Photoshop, Adobe Premiere Pro, Video Editing, Flexible work hours,  Job offer</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Hyderabad                                                    (Hybrid)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>₹ 5,000 - 8,000 /month</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/video-editing-making-internship-in-hyderabad-at-gummalla-technologies1744019181</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Visual It Solutions</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.visualit.in/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Visual IT Solutions Private Limited provides a gamut of IT services to various businesses and organizations, helping them improve their business performance through cutting-edge technologies. Deploying mission-critical applications within pre-determined timeframes, we enable real-time enterprise computing efficient and effective. What's more, with committed individuals on the forefront as a technical team, the customers can look forward to receiving maximum business value for their investment.
+Our expertise in various business spheres and technologies enables us to understand the business requirements and helps us to develop viable solutions within a short turnaround time thus saving clients' time and money. Backed by a team of highly qualified and seasoned professionals we can help cut down our clients' costs by presenting innovative and highly cost-effective business solutions.</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Hiring since April 2025</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Creative Writing, Email Marketing, Facebook Marketing, Instagram Marketing, Search Engine Optimization (SEO), Social Media Marketing, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>55</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>₹ 2,000 - 5,000 /month</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/social-media-marketing-internship-in-hyderabad-at-visual-it-solutions1743679594</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TerraBlue XT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>http://www.teblux.com</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>We are a young, dynamic, and socially responsible organization with a passion for technological innovations using the latest research and proven design principles to create meaningful products and solutions that bring a positive change in people's lives. With TJay, we took our first step in unraveling the mysteries of the brain. As an organization, TerraBlue XT will persist in its journey of a thousand miles, attempting to make the quality of lives of people with chronic disorders better, safer, and happier.</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="n">
+        <v>136</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hiring since April 2016</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Canva, Content Writing, Effective Communication, English Proficiency (Spoken), English Proficiency (Written), MS-Office, Psychology, Research and Analytics, Social Media Marketing, Certificate,  Flexible work hours,  Job offer</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>77</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Hyderabad, Bangalore</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>₹ 15,000 /month</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/psychology-internship-in-multiple-locations-at-terrablue-xt1743769089</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tenet Mediaverse</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A media and technology consulting startup. We at Tenet Mediaverse work to leverage the confluence of 'Human + Agentic' and 'Data + Design' in order to deliver productivity transformation to our clients.</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Hiring since April 2025</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Adobe Premiere Pro, DaVinci Resolve, Video Editing, Video Making, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  5 days a week,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>42</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>₹ 15,000 - 20,000 /month</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/video-editing-making-internship-in-hyderabad-at-tenet-mediaverse1743765824</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Able Aura</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Able Aura is the very first exclusive digital platform for persons with disabilities to live as enabled equals. This platform allows individuals with disabilities to access products, services, accessible travel, and community space all in one place, encompassing everything they need, want, and hope for, in their daily lives. It represents a complete ecosystem designed to change the future, now! Able Aura is dedicated to empowering persons with disabilities through various initiatives and services, including personalized sports training, at-home physical therapy &amp; training, accessible tourism, and lifetime care homes.</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hiring since January 2025</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Emotional intelligence, English Proficiency (Spoken), Hindi Proficiency (Spoken), Telugu Proficiency (Spoken), Flexible work hours,  Informal dress code,  5 days a week,  Job offer</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Hyderabad, Attapur</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>₹ 5,000 - 7,000 /month</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-shadow-trainer-part-time-internship-in-multiple-locations-at-able-aura1743761639</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nixa Branding Solutions</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>http://nixaprint.com</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nixa Branding Solutions is the Hyderabad based company which is into printing, branding &amp; advertisement.</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Hiring since April 2025</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>English Proficiency (Spoken), Certificate,  Job offer</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>₹ 10,000 - 13,000 /month</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-nixa-branding-solutions1743679676</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BeamCrew</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>http://www.beamcrew.co.in</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>We are India's first long-distance concierge service catering to NRIs around the world, as well as their families and corporate executives in India, while maintaining high standards. BeamCrew provides a range of services in healthcare, real estate, daily errands, and other miscellaneous services across India.</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>318</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Hiring since August 2017</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Accounting, Company Law, English Proficiency (Spoken), English Proficiency (Written), Management, MS-Office, MS-Word, Report Generation, Statutory compliances, Certificate,  Letter of recommendation,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Delhi, Hyderabad, Chennai, Mumbai</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>₹ 8,000 - 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/company-secretary-cs-internship-in-multiple-locations-at-beamcrew1743659845</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>D ADVAYA FM PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>We are India's 1st AI Edtech Company dedicated to Facilities Management Upskilling for both blue collared and white collared workers in the FM Industry .</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Hiring since April 2025</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Digital Marketing, Email Marketing, English Proficiency (Spoken), English Proficiency (Written), MS-Excel, Social Media Marketing, Certificate,  Letter of recommendation,  Informal dress code,  5 days a week,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>₹ 8,000 - 12,000 /month</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-guru-prasaad1743658919</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GNM GROUP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GNM Group is working as a supplier of construction services for affordable residential apartments by a promoter in a Residential Real Estate Project or Real Estate Project intended for sale to a buyer in Navi Mumbai, Thane, Maharashtra.</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hiring since April 2025</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>MS-Excel, MS-Office, Job offer</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>306</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Hyderabad                                                    (Hybrid)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>₹ 18,000 - 25,000 /month</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/data-entry-internship-in-hyderabad-at-gnm-group1743499290</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Hamsi Marketing Private Limited</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>At Hamsi Marketing, we pride ourselves on staying at the forefront of technological advancements in the marketing industry. We harness the power of artificial intelligence (AI) and other innovative technologies to deliver exceptional results in both marketing and sales. Our goal is to optimize your marketing efforts and drive sustainable growth for your business. 
+Our comprehensive approach combines data-driven strategies with creative campaigns across various digital platforms. By leveraging advanced targeting techniques and analytics, we ensure that your message reaches the right audience at the right time, maximizing your chances for success.</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>44</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Hiring since April 2024</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>English Proficiency (Spoken), English Proficiency (Written), MS-Excel, MS-Office, MS-Word, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>90</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>₹ 2,000-6,000 /month</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/human-resources-hr-internship-in-hyderabad-at-hamsi-marketing-private-limited1742258403</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Digisol Systems Ltd.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>http://digisol.com</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Digisol Systems is a trusted "Made in India" IT networking brand that offers a wide range of IT networking solutions, such as structured cabling systems (copper &amp; fiber), FTTH, switching, and wireless products. Digisol is a wholly owned subsidiary of Smartlink Holdings Ltd., a BSE/NSE listed company with expertise in manufacturing IT networking products since 1986.</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Market Analysis, Marketing Strategies , Market research, Certificate,  Flexible work hours,  Job offer</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>318</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Ahmedabad, Chandigarh, Chennai, Delhi, Kolkata, Lucknow, Hyderabad, Mumbai, Bangalore</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>₹ 7,000 - 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-development-market-analysis-internship-in-multiple-locations-at-digisol-systems-ltd1743511109</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pragament Tech Solutions Private Limited</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>We provide technical solutions in areas of education &amp; health. We also provide software products &amp; services.</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>29</v>
+      </c>
+      <c r="E36" t="n">
+        <v>23</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Hiring since July 2023</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Android, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  5 days a week,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>93</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>₹ 2,500 - 4,001 /month</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-android-app-development-internship-in-hyderabad-at-pragament-tech-solutions-private-limited1743492696</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HYPERPIXEL ROBOTICS PVT LTD</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>HYPERPIXEL ROBOTICS PVT. LTD. provides quality services in drone manufacturing and customized drone production, 3D printing services, and prototyping &amp; manufacturing according to custom specifications.</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>English Proficiency (Spoken), English Proficiency (Written), Instagram Marketing, Video Editing, Job offer</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>73</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Tirupati, Hyderabad</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>₹ 6,000 - 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/digital-marketing-internship-in-multiple-locations-at-hyperpixel-robotics-pvt-ltd1743489127</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sasikumar Peyyala</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>http://trademilaan.in</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Sasikumar Peyyala is a SEBI-registered research analyst with a deep passion for AI and machine learning-driven trading strategies. With over nine years in financial markets, he specializes in developing data-driven models that empower traders and investors to make smarter, more informed decisions. A university gold medalist in machine learning and AI from IIIT-Andhra Pradesh, he brings a strong foundation in quantitative analysis, algorithmic trading, and risk management. His expertise lies in decoding market complexities using cutting-edge technologies. Whether you're a seasoned investor or an aspiring trader, his insights can help you navigate the stock market with confidence. Connect and explore how AI-powered strategies can elevate your trading decisions.</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Adobe Illustrator, Adobe Photoshop, Adobe Premiere Pro, Final Cut Pro, Video Editing, Video Making, Certificate,  Letter of recommendation,  Informal dress code,  5 days a week,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Hyderabad, Vijayawada                                                    (Hybrid)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>₹ 5,000 - 20,000 /month</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/video-editing-making-internship-in-multiple-locations-at-sasikumar-peyyala1743318366</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kallakunta Healthcare Services Private Limited (Primera Dental Hub)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>We are engaged in the healthcare sector (mainly in the dental field). We are into the trade of dental materials to clinics - both online and offline. We also provide dental services to patients and help doctors to grow their business.</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>13</v>
+      </c>
+      <c r="E39" t="n">
+        <v>52</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Hiring since October 2020</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>English Proficiency (Spoken), Hindi Proficiency (Spoken), Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>62</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Bengaluru, Hyderabad, Mumbai                                                    (Hybrid)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>₹ 8,000 - 20,000 /month</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/field-sales-internship-in-multiple-locations-at-kallakunta-healthcare-services-private-limited-primera-dental-hub1743317849</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Penster</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://penster.ai</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AI-based content workflow engine. We use AI to simplify content workflow for SMBs, hospitals, and influencers.</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>English Proficiency (Spoken), English Proficiency (Written), LinkedIn Marketing, MS-Excel, MS-Office, MS-Word, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>170</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Hyderabad                                                    (Hybrid)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>₹ 8,000 - 12,000 /month</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/human-resources-hr-internship-in-hyderabad-at-penster1743313234</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mom Pharmacy</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>http://mompharmacy.in</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>We are an early-stage startup where we are trying to deliver medicine to customers within 10 minutes of the order being received from the customer.</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Hiring since December 2024</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>English Proficiency (Written), Management, MS-Excel, Recruitment, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>97</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>₹ 5,000 - 8,000 /month</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/human-resources-hr-internship-in-hyderabad-at-mom-pharmacy1743223781</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SR Edu Technologies</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://sredutech.com/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>We provide technology-driven integrated solutions that enable our clients to monitor and administrate educational institutions through current technologies, keeping parents updated on students' school activities. We ensure there is no miscommunication between parents and educational institutions. The combination of a thorough process, comprehensive experience, and expansive creative vision enables us to create solutions that are innovative, usable, reliable, and beneficial for both parents and educational institutions.</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>18</v>
+      </c>
+      <c r="E42" t="n">
+        <v>170</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Hiring since September 2023</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Laravel, PHP, Certificate,  Letter of recommendation,  5 days a week,  Job offer</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>336</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>₹ 15,000 - 20,000 /month</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/php-development-internship-in-hyderabad-at-sr-edu-technologies1743161937</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TechWebLabs</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>We are a creative agency with a passion for design &amp; development. TechWebLabs is a web and app development &amp; designing company where we also provide services like SEO, SMM, online marketing, etc.</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>37</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Hiring since March 2021</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Video Editing, Video Making, Certificate,  Letter of recommendation,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Hyderabad, Andra</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>₹ 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/video-editing-making-internship-in-multiple-locations-at-techweblabs1743079850</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Educase India</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://instagram.com/educase.io/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Educase is a startup in the educational industry of India. It is a unique platform that provides services like school ERP software, school management system, preschool management software, and a personalized mobile application for schools. Apart from this, we also provide the best digital experiences to the education sector all over India. We have worked with great brands and take pride in pushing the limits of creativity and finding new &amp; exciting ways to engage customers across all stages. Distance is not a barrier and no project is small or big for us!</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>115</v>
+      </c>
+      <c r="E44" t="n">
+        <v>226</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Hiring since June 2021</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Adobe XD, Figma, Sketch, UI &amp; UX Design, User Interface (UI) Development, Wireframing, Letter of recommendation,  Flexible work hours,  Informal dress code,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>416</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>₹ 15,000 /month</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/ui-ux-design-internship-in-hyderabad-at-educase-india1743084252</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Archelite Construction Services</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>http://www.archelite.in</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Archelite Construction Services specializes in interior and facade finishes for a variety of projects, including residential, commercial, healthcare, and retail sectors. Headquartered in Hyderabad with a nationwide operational footprint, Archelite has been leading the way in the construction industry since its inception. We are dedicated to elevating customer experiences by incorporating leading-edge construction technologies and sophisticated machinery into our practices. Over the years, we have built a solid reputation for delivering excellence, earning the trust of prominent clients such as K Raheja Corp., Phoenix Ventures, Divyasree Developers, JLL, L&amp;T Construction, Leighton Asia, Shapoorji Pallonji Group, Tata Projects Ltd, Auro Realty, ASBL, Furnace Fabrica Ltd, Salarpuria Sattva, Pacifica Companies, CBRE Asia Pacific, Cushman &amp; Wakefield and Hill International.</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Hiring since December 2022</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>B2B Sales, Client Relationship Management (CRM), Cold Calling, Customer Acquisition, Lead Generation, Market Analysis, Marketing Campaigns , Market research, MS-Excel, Presentation skills, Problem Solving, Project Management, Research and Analytics, Sales, Sales Strategy, Certificate,  Letter of recommendation,  5 days a week,  Job offer</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>183</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>₹ 15,000 /month</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/civil-engineering-internship-in-hyderabad-at-archelite-construction-services1743057507</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sailotech Private Limited</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>http://www.sailotech.com</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sailotech is a global IT solution company that enhances the profitability and sustainability of organizations with its innovative solutions in digitalization and automation. We have been entrusted by a few of the fortune 500 companies globally to solve some of the most complex business problems and deliver digital transformation outcomes. We ensure the highest level of technical excellence, design thinking-led innovation, and strategic engagement models to deliver sustained long-term value to the customers. Our niche offerings in IoT, artificial intelligence, machine learning, robotic process automation, and testing automation coupled with our rich expertise in enterprise applications -Infor, Oracle, and analytics, enhance value proposition significantly.</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Effective Communication, English Proficiency (Spoken), Interpersonal skills, MS-Excel, MS-PowerPoint, MS-Word, Certificate,  5 days a week,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>₹ 5,000 - 20,000 /month</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/human-resources-hr-internship-in-hyderabad-at-sailotech-private-limited1743051051</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Socialtek AI &amp; ML Business Solutions Private Limited</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>http://socialtek.in</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Socialtek AI &amp; ML Business Solutions Private Limited's mission is to collaboratively develop business AI solutions with healthcare, education, and finance domains. Our AiaS (Artificial Intelligence as a Service) model helps all the industries to build &amp; scale their AI systems in a simple &amp; budget-friendly way. Our AI engineers, machine learning scientists, software engineers, and designers collaborate with all like-minded mentors around the world to apply the latest advances in machine learning, computer vision, neural networks which help us to build great AI systems. For the last two years, we have been applying our AI expertise to some of the most challenging problems in the healthcare, education industries. Many of our team members worked together for over 6 years before starting Socialtek, developing advanced technologies for leading companies around the world. We work closely with our Industry mentors, collaboration partners to create scalable and compliant AI business solutions.</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>12</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Hiring since October 2021</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Adobe After Effects, Adobe Creative Suite, Adobe Illustrator, Adobe InDesign, Adobe Photoshop, Adobe Photoshop Lightroom CC, Adobe Premiere Pro, Canva, CorelDRAW, UI &amp; UX Design, Video Editing, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>90</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>₹ 18,000 /month</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/graphic-design-internship-in-hyderabad-at-socialtek-ai-ml-business-solutions-private-limited1743001670</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Svayamkrushi Home Services Llp</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sahayak is a mobile app that you can download on your android smartphone and book the help you need, at reasonable rates and with the best quality assured. All our Sahayak's are background checked, trained and certified.</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Digital Marketing, Email Marketing, English Proficiency (Spoken), English Proficiency (Written), MS-Office, Social Media Marketing, Letter of recommendation,  Flexible work hours,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Hyderabad                                                    (Hybrid)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>₹ 5,000 /month +  Incentives</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-marketing-internship-in-hyderabad-at-svayamkrushi-home-services-llp1742993544</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Business Labs</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>http://businesslabs.org/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>We are a team of people who will work to make your business and its processes as efficient and profitable as possible. With our technical process, we will create refined and customized solutions for you that will make your life simpler and easier. We win when you win. Business Labs succeed when you succeed. We believe ongoing growth and vitality are achieved together.</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>40</v>
+      </c>
+      <c r="E49" t="n">
+        <v>101</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Hiring since May 2015</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Email Management, Email Marketing, English Proficiency (Spoken), English Proficiency (Written), MS-Excel, Pivot Table, VLOOKUP, Written Communication, Certificate,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>₹ 10,000 - 10,001 /month</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-business-labs1742967653</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SIYARI JEWELLERS</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Siyari Jewellers is an exciting e-commerce startup specializing in exquisite diamond jewelry. We blend traditional craftsmanship with modern elegance to offer discerning customers timeless pieces that sparkle with beauty and sophistication.
+Mission: Our mission is to bring the brilliance of diamonds into everyday life by creating stunning jewelry that is also accessible through our online platform.
+Vision: Driven by innovation and a passion for diamonds, Siyari Jewellers aims to become a leading name in the online diamond jewelry market, known for exceptional quality and customer satisfaction.
+Core values: Our core values are excellence in craftsmanship, innovation in design, transparency and trust, and customer satisfaction.</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Adobe InDesign, Adobe Photoshop, Canva, CorelDRAW, Video Editing, Certificate,  Job offer</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>82</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>₹ 17,000 - 25,000 /month</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/graphic-design-internship-in-hyderabad-at-deepak-baid1742902772</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Configoo Spaces</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Concoo Spaces is an architectural firm based  in Hyderabad, doing projects in and around Telangana. Our team consists of very young and passionate architects and designers from reputed institutes like IITs and NITs. We, as a team, believe that everyone should have  access to good architecture at an affordable cost. We always love to configure your needs into beautiful spaces.</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Hiring since June 2024</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Adobe Photoshop, AutoCAD, Enscape, Google SketchUp , Lumion, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>₹ 5,000 - 12,000 /month</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/architecture-internship-in-hyderabad-at-configoo-spaces1742882705</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Muthoot Finance</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>http://career.muthootfinance.com</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>The Muthoot Group is a leading business conglomerate that has successfully expanded to every town across the nation. With 20 diversified business divisions and over 5,443 branches, the Muthoot Group has a global presence in the USA, the UK, the UAE, Costa Rica, Sri Lanka, and Nepal. Muthoot Finance, the flagship company of The Muthoot Group, has been rated India's no. 1 most trusted financial services brand by TRA's Brand Trust Report. It has also been certified as a 'Great Place To Work' for 2021-22 and recognized as one of the top 30 best places in the Workplace Excellence Show on CNBC TV-18 in 2016. The company offers 30+ staff welfare measures, including fast-track promotions, career development programs, the national pension scheme, foreign trips, five types of annual incentives/bonuses, cash rewards, contests with prizes, maternity benefits, medical benefits, and employee insurance, among others. Muthoot Finance is committed to promoting local hiring from the region.</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Hiring since January 2025</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>MS-Excel, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>157</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>₹ 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/branch-executive-internship-in-hyderabad-at-muthoot-finance1742819805</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Navars Edutech Private Limited</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>http://navarsedutech.com</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>We at Navars are passionate about astronomy science education and because of our commitment to outreach, we focus on our astronomy labs, DIY kits, and portable digital planetariums; where we can excite, amaze, and inspire our audiences, whether young or adult, about the wonders of science. We are accomplishing our mission through education and outreach programs.</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Hiring since July 2022</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>3D Printing, Arduino, AutoCAD, Autodesk Fusion 360, Design Thinking, Prototyping, Quality Assurance/Quality Control (QA/QC), Raspberry Pi, SolidWorks, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>323</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>₹ 15,000 - 20,000 /month</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/product-design-internship-in-hyderabad-at-navars-edutech-private-limited1742807965</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>PINAKINI WEBIO TECH SOLUTIONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>http://piweteso.com</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>We act as business consultants and provide business assistance, management, and administrative services to various agencies and institutions, bodies, governments, companies, the corporate, and individuals in India and abroad for the fulfillment of the objectives of the company. 
+We provide management consultancy services to individuals, firms, companies, bodies corporate, societies, undertakings organizations, institutions, associations, government local authorities, and others and arrange for recruitment and training of personnel required by the above entities in India and abroad.</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>16</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Hiring since February 2023</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Digital Marketing, Email Marketing, English Proficiency (Spoken), English Proficiency (Written), Hindi Proficiency (Spoken), MS-Excel, MS-Office, Social Media Marketing, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>₹ 6,000 - 9,000 /month</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/marketing-internship-in-hyderabad-at-pinakini-webio-tech-solutions-private-limited1742587150</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TecchyAutomate</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://techyautomate.com/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>At TechyAutomate, we specialize in delivering cutting-edge Robotic Process Automation (RPA) solutions that streamline operations, enhance productivity, and drive digital transformation. Our expert team leverages the latest in AI and machine learning to automate repetitive tasks, reduce errors, and free up valuable resources for strategic initiatives. Partner with us to unlock the full potential of automation and propel your business into the future.</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Hiring since July 2024</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Business Analysis, Effective Communication, Operations, Research and Analytics, Sales, Certificate,  Flexible work hours,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Hyderabad                                                    (Hybrid)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>₹ 3,000 /month +  Incentives</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-tecchyautomate1742544902</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Scale Labs</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Scale Labs is a cross-border e-commerce enabler for brands and online retailers to scale their business into international markets. We envision enabling brands with cutting-edge business services and tech products to address a global audience and to let our clients pioneer a global trend.</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>22</v>
+      </c>
+      <c r="E56" t="n">
+        <v>145</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Hiring since April 2017</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Effective Communication, MS-Office, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  5 days a week,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>44</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>₹ 5,000 /month +  Incentives</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/regulatory-affairs-international-markets-internship-in-hyderabad-at-scale-labs1742543978</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Cake L'amore</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Cake L'amore is a part of VSK Services Private Limited, which is rapidly expanding its horizon into multiple food brands. Cake L'amore was established in November 2019 and has gained immense popularity and has now grown into 8 outlets in Hyderabad.</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>19</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Hiring since June 2020</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Culinary Arts, Certificate,  Letter of recommendation,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>₹ 5,000 /month</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/hotel-management-food-beverage-production-internship-in-hyderabad-at-cake-lamore1742468187</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Webpulse Solution Private Limited</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.webpulseindia.com/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Webpulse Solution Private Limited is an awarded best web designing, digital marketing &amp; branding company in India. Headquartered in New Delhi with branch offices in the UK &amp; Australia, the company is serving 5000+ clients from all over the world. Major services offered by the company are corporate web designing, e-commerce website designing, and development, CRM development, digital marketing, SEO services, B2B &amp; B2C portal development, social media optimization &amp; marketing, logo &amp; brochure designing &amp; branding services.</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>60</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Hiring since October 2020</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>English Proficiency (Spoken), Hindi Proficiency (Spoken), Certificate,  Letter of recommendation,  Informal dress code,  5 days a week,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>47</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Ahmedabad, Chandigarh, Chennai, Delhi, Gurgaon, Kolkata, Pune, Saharanpur, Surat, Bengaluru, Hyderabad, Mumbai, Jaipur, Noida, Panipat</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>₹ 5,000 /month +  Incentives</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/field-sales-internship-in-multiple-locations-at-webpulse-solution-private-limited1742463265</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Dheeraj Allamaneni</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>http://www.cynohub.com</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Cynohub is India's largest online learning platform for engineers, with over 2,00,000+ students from all across the country. You can find everything from academics to skill development in one place.
+We are a leading ed-tech platform dedicated to empowering students, including engineering students, non-engineering students, and working professionals, to excel in their academics and advance their professional skills. We provide a comprehensive range of online learning resources, including academic support for engineering students and upskilling courses for both engineering and non-engineering candidates.</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Adobe Premiere Pro, Video Editing, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>28</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>₹ 10,000-15,000 /month</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/video-editing-making-internship-in-hyderabad-at-dheeraj-allamaneni1742462433</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Hamsi Marketing</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>At Hamsi Marketing, we pride ourselves on staying at the forefront of technological advancements in the marketing industry. We harness the power of artificial intelligence (AI) and other innovative technologies to deliver exceptional results in both marketing and sales. Our goal is to optimize your marketing efforts and drive sustainable growth for your business. Our comprehensive approach combines data-driven strategies with creative campaigns across various digital platforms. By leveraging advanced targeting techniques and analytics, we ensure that your message reaches the right audience at the right time, maximizing your chances for success.</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>14</v>
+      </c>
+      <c r="E60" t="n">
+        <v>75</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Hiring since October 2023</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Research and Analytics, Certificate,  Letter of recommendation,  Informal dress code,  Free snacks &amp; beverages,  Job offer</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>₹ 2,000 /month</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-strategy-internship-in-hyderabad-at-hamsi-marketing1742447277</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oceana Positive</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Oceana Positive is a premium-label water bottle brand based out of Hyderabad and caters to 8 southern cities with more than 600 customers.
+Oceana Positive started its humble beginning in 2013 with 20 bottles as its first order. Now we are the leading brand dealing in customized packaged drinking water, alkaline water, and natural mineral water, serving both B2B and B2C segments. We have our own manufacturing units in Telangana, AP, and Himachal Pradesh. Our distributors are spread across various cities in India. 
+We are proudly associated with popular brands like Kingfisher" and "CLEAR; as a service provider for the South Zone. We are pioneers in India to implement the concept of a water supermarket and have aspirational growth plans to make Oceana Positive a numerouno brand in customised water segment, PAN India. 
+It is the only premium water bottle company in India, established and run by professionals, and stands synonymous with its quality and customer service obsession.</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Effective Communication, Market Analysis, Market research, Negotiation, Problem Solving, Sales, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>207</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>₹ 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/part-time-sales-and-marketing-internship-in-hyderabad-at-oceana-positive1742450975</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Janaki Fresh Chicken (Vimala Feeds)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>http://vimalafeeds.com</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Janaki Group of Companies (Vimala Feeds Private Limited) is a fully integrated poultry organization, involved in the production process at every stage of the value chain, including breeding farms, hatcheries, feed mills, integration farms, and chicken processing</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Hiring since March 2025</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Sales, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>37</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>₹ 10,000-15,000 /month</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/sales-consultant-internship-in-hyderabad-at-janaki-fresh-chicken-vimala-feeds1742444246</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BrandLand Advertising Private Limited</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>BrandLand Advertising Private Limited is an integrated marketing solution provider. We are one of the top brand activation agencies. We are growing very fast in various cities and currently have more than 130 clients.</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>16</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Hiring since December 2019</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Client Interaction, Marketing Strategies , Research and Analytics, Sales, Certificate,  Letter of recommendation,  Flexible work hours,  Informal dress code,  5 days a week,  Job offer</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>58</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>₹ 8,000 /month</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-strategy-internship-in-hyderabad-at-brandland-advertising-private-limited1742388599</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Yhodha Combat Martial Arts</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Yhodha Combat is a Martial Arts Company which has opened the Martial Arts for every age group with all the safety precautions taken. Trainers here have a minimum experience of 7+ years.</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Hiring since May 2024</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Adobe After Effects, Adobe Photoshop, Adobe Premiere Pro, Video Editing, Certificate,  Flexible work hours,  5 days a week,  Job offer</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>₹ 8,000 /month</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/video-editing-making-internship-in-hyderabad-at-yhodha-combat-martial-arts1742304458</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Tex N Co</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>We are an interior design and construction firm handling design and execution for both residential and commercial interior, construction, and renovation projects.</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Hiring since July 2021</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Adobe Photoshop, AutoCAD, Google SketchUp , Certificate,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>87</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>₹ 8,000 /month</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/interior-design-internship-in-hyderabad-at-tex-n-co1742298415</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Megaminds IT Services</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>We provide application solutions and development needs to clients. We offer business solutions for computing and creative excellence and deliver innovative and cost-effective solutions with ethics. Our experienced and committed team, with its strong focus on technology, is the backbone of our company in delivering the synergy of creative solutions. We design, develop, and deliver cost-effective and high-quality software applications. We provide e-commerce, retail, manufacturing, and many other services. We work on political campaigning with transparency. Megaminds IT Services (now Megaminds IT &amp; Job Consultancy Services) has started job consultancy services too.</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>81</v>
+      </c>
+      <c r="E66" t="n">
+        <v>304</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Hiring since March 2019</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Canva, Content Marketing, Design Thinking, Digital Marketing, Email Marketing, English Proficiency (Spoken), English Proficiency (Written), MS-Excel, Search Engine Optimization (SEO), Social Media Marketing, Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>92</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>₹ 10,000-15,000 /month</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-hyderabad-at-megaminds-it-services1742177890</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MyPlan Abroad</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://myplanabroad.com</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>My Plan Abroad bridges the gap between the finances of the students and their dream of studying abroad. We provide financial consulting for students</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Hiring since February 2025</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Effective Communication, Email Marketing, English Proficiency (Spoken), English Proficiency (Written), MS-Excel, Sales, Telugu Proficiency (Spoken), Certificate,  Letter of recommendation,  Job offer</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>28</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>₹ 10,000 /month +  Incentives</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/founders-office-sales-internship-in-hyderabad-at-myplan-abroad1742045674</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Vollgas Eduventures Private Limited</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Vollgas Eduventures Private Limited operates in the early childcare space through its brand "Kiddenz". We work with childcare providers to offer marketing, software, and consultancy services. Kiddenz is a fast-growing SaaS platform transforming how parents discover and connect with preschools and daycare centers. With a network of 5,000+ childcare providers, we help childcare businesses enhance their online visibility, generate quality leads, and increase admissions through data-driven marketing and automation.</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>12</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Hiring since January 2023</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Effective Communication, English Proficiency (Spoken), Sales, Certificate,  Letter of recommendation,  Informal dress code,  Job offer</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>526</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Gurgaon, Pune, Bengaluru, Hyderabad, Mumbai, Noida</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>₹ 35,000 /month</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/business-development-sales-internship-in-multiple-locations-at-vollgas-eduventures-private-limited1742019706</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Confluence Educational Services Private Limited</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Since 2005, Confluence has been in counseling services for students who wish to study abroad. Working with diversified students and universities across the globe, we are constantly welcoming creative and dynamic people for various positions.</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Hiring since March 2022</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Effective Communication, Job offer</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>33</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Hyderabad</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Stipend</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>₹ 10,000 /month</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>https://internshala.com/internship/detail/tele-counselor-internship-in-hyderabad-at-confluence-educational-services-private-limited1741773261</t>
         </is>
       </c>
     </row>
